--- a/files/3.xlsx
+++ b/files/3.xlsx
@@ -2019,6 +2019,21 @@
           <t>(1994 Onwards)</t>
         </is>
       </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>(1994 Onwards)</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>(1994 Onwards)</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>(1994 Onwards)</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
@@ -2036,6 +2051,21 @@
           <t>(2012 Onwards)</t>
         </is>
       </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>(2012 Onwards)</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>(2012 Onwards)</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>(2012 Onwards)</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -2165,10 +2195,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="U37:X37"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>